--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed4/result_data_RandomForest.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.138400000000003</v>
+        <v>4.759400000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.95700000000001</v>
+        <v>-21.92250000000002</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.512399999999996</v>
+        <v>5.270699999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.4209</v>
+        <v>-8.516300000000001</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.49319999999999</v>
+        <v>-13.37029999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.7318</v>
+        <v>-8.845300000000003</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.16170000000001</v>
+        <v>-22.15670000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.84049999999998</v>
+        <v>-20.05669999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.1963</v>
+        <v>-7.144999999999997</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.467600000000002</v>
+        <v>-7.4846</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.234700000000006</v>
+        <v>4.077500000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.2018</v>
+        <v>-22.1683</v>
       </c>
       <c r="B27" t="n">
-        <v>5.800700000000005</v>
+        <v>5.486500000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.78919999999999</v>
+        <v>16.75729999999999</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.948299999999997</v>
+        <v>5.069999999999995</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.05030000000001</v>
+        <v>17.17150000000002</v>
       </c>
     </row>
     <row r="30">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.396700000000004</v>
+        <v>9.877600000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.077900000000002</v>
+        <v>4.897100000000002</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.609</v>
+        <v>-12.5561</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.435000000000006</v>
+        <v>-7.387900000000001</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.2087</v>
+        <v>-13.21959999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.211499999999996</v>
+        <v>-7.265299999999997</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.765400000000003</v>
+        <v>5.971900000000004</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.7945</v>
+        <v>-11.92510000000001</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.623699999999997</v>
+        <v>-7.514399999999992</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.924199999999999</v>
+        <v>4.843799999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.174799999999996</v>
+        <v>-7.907199999999996</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.20799999999999</v>
+        <v>-14.11229999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7244</v>
+        <v>16.614</v>
       </c>
     </row>
     <row r="58">
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.8204</v>
+        <v>-11.9474</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.68839999999999</v>
+        <v>-21.6245</v>
       </c>
       <c r="B69" t="n">
-        <v>5.528999999999995</v>
+        <v>5.379199999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.149600000000006</v>
+        <v>6.064600000000008</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.671</v>
+        <v>-11.577</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.46139999999999</v>
+        <v>-20.03579999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9029</v>
+        <v>-22.02580000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>6.085799999999999</v>
+        <v>5.8346</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-9.032</v>
+        <v>-8.923199999999998</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>16.13629999999999</v>
+        <v>16.24099999999999</v>
       </c>
     </row>
     <row r="86">
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.565</v>
+        <v>-12.84219999999999</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.218700000000004</v>
+        <v>-8.356700000000004</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.91949999999999</v>
+        <v>-8.062599999999993</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.993800000000006</v>
+        <v>8.160000000000007</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
